--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/myposyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D72D14F-9468-A944-8B88-CCC3E020E513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4C7A43-0C3E-1648-A9A0-3F8AFD9C0461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="52">
   <si>
     <t>module</t>
   </si>
@@ -54,9 +54,6 @@
     <t>view, create, show, update, delete, restore, destroy, search</t>
   </si>
   <si>
-    <t>view, show</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -138,12 +135,6 @@
     <t>Pos Pelayanan Terpadu</t>
   </si>
   <si>
-    <t>Pengaduan</t>
-  </si>
-  <si>
-    <t>submission</t>
-  </si>
-  <si>
     <t>Posyandu Ku</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>myposyandu-dashboard</t>
   </si>
   <si>
-    <t>myposyandu-submission</t>
-  </si>
-  <si>
     <t>myposyandu-report</t>
   </si>
   <si>
@@ -166,6 +154,33 @@
   </si>
   <si>
     <t>superadmin, cardre</t>
+  </si>
+  <si>
+    <t>Aktifitas</t>
+  </si>
+  <si>
+    <t>myposyandu-activity</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>Pendanaan</t>
+  </si>
+  <si>
+    <t>myposyandu-founding</t>
+  </si>
+  <si>
+    <t>activity/:activity/founding</t>
+  </si>
+  <si>
+    <t>Penerima</t>
+  </si>
+  <si>
+    <t>myposyandu-beneficiary</t>
+  </si>
+  <si>
+    <t>beneficiary</t>
   </si>
 </sst>
 </file>
@@ -548,8 +563,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -564,70 +579,70 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -640,10 +655,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D2:D4"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -653,9 +668,9 @@
     <col min="4" max="4" width="23.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -664,57 +679,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="5" t="b">
         <v>1</v>
@@ -723,30 +738,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
@@ -755,39 +770,106 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H4" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -800,10 +882,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -826,10 +908,10 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -837,10 +919,10 @@
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -848,13 +930,35 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -869,8 +973,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -889,7 +993,7 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -897,10 +1001,10 @@
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -913,17 +1017,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
@@ -939,35 +1043,57 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -980,17 +1106,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1010,13 +1136,13 @@
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1024,13 +1150,13 @@
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1038,15 +1164,43 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/myposyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4C7A43-0C3E-1648-A9A0-3F8AFD9C0461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B275A1-4AA8-794B-BC00-7CB1B77E9575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>cadre</t>
   </si>
   <si>
-    <t>superadmin, cardre</t>
-  </si>
-  <si>
     <t>Aktifitas</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>beneficiary</t>
+  </si>
+  <si>
+    <t>superadmin, cadre</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -746,13 +746,13 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -761,7 +761,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
@@ -778,13 +778,13 @@
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -793,7 +793,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>22</v>
@@ -813,13 +813,13 @@
         <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -828,7 +828,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>1</v>
@@ -885,7 +885,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -922,7 +922,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -933,7 +933,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -944,7 +944,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -974,7 +974,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1049,7 +1049,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
@@ -1057,10 +1057,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
@@ -1068,10 +1068,10 @@
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1079,10 +1079,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1108,8 +1108,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1142,7 +1142,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1153,10 +1153,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1167,10 +1167,10 @@
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1181,10 +1181,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1198,7 +1198,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/myposyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B275A1-4AA8-794B-BC00-7CB1B77E9575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031CBE49-2633-044D-BC75-0368329E79FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="61">
   <si>
     <t>module</t>
   </si>
@@ -96,9 +96,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
     <t>Laporan</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>cadre</t>
   </si>
   <si>
-    <t>Aktifitas</t>
-  </si>
-  <si>
     <t>myposyandu-activity</t>
   </si>
   <si>
@@ -165,22 +159,55 @@
     <t>Pendanaan</t>
   </si>
   <si>
-    <t>myposyandu-founding</t>
-  </si>
-  <si>
-    <t>activity/:activity/founding</t>
-  </si>
-  <si>
     <t>Penerima</t>
   </si>
   <si>
     <t>myposyandu-beneficiary</t>
   </si>
   <si>
-    <t>beneficiary</t>
-  </si>
-  <si>
     <t>superadmin, cadre</t>
+  </si>
+  <si>
+    <t>Kegiatan</t>
+  </si>
+  <si>
+    <t>activity/:activity/beneficiary</t>
+  </si>
+  <si>
+    <t>Pengaduan</t>
+  </si>
+  <si>
+    <t>myposyandu-complaint</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>Alasan</t>
+  </si>
+  <si>
+    <t>myposyandu-premise</t>
+  </si>
+  <si>
+    <t>activity/:activity/premise</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>myposyandu-funding</t>
+  </si>
+  <si>
+    <t>activity/:activity/funding</t>
+  </si>
+  <si>
+    <t>account_balance_wallet</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
 </sst>
 </file>
@@ -588,13 +615,13 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -603,34 +630,34 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -642,7 +669,7 @@
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -655,18 +682,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.1640625" style="6" bestFit="1" customWidth="1"/>
@@ -674,7 +700,7 @@
     <col min="11" max="11" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,9 +735,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -720,13 +746,13 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
@@ -741,27 +767,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
@@ -773,102 +799,172 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5" t="b">
         <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H5" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="b">
         <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="5" t="b">
+      <c r="H8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="I8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -882,10 +978,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -895,7 +991,7 @@
     <col min="3" max="3" width="62.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,34 +1002,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -941,10 +1037,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -952,12 +1048,34 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -973,8 +1091,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -993,7 +1111,7 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1001,10 +1119,10 @@
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1017,10 +1135,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1030,7 +1148,7 @@
     <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,59 +1159,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1106,10 +1246,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1120,7 +1260,7 @@
     <col min="4" max="4" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,43 +1274,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -1178,13 +1318,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -1192,15 +1332,43 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/myposyandu/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031CBE49-2633-044D-BC75-0368329E79FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC44E97E-FAEF-8A44-9650-3A00F0A8FC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="68">
   <si>
     <t>module</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Kegiatan</t>
   </si>
   <si>
-    <t>activity/:activity/beneficiary</t>
-  </si>
-  <si>
     <t>Pengaduan</t>
   </si>
   <si>
@@ -208,13 +205,37 @@
   </si>
   <si>
     <t>problem</t>
+  </si>
+  <si>
+    <t>beneficiary</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>warga</t>
+  </si>
+  <si>
+    <t>superadmin, cadre, warga</t>
+  </si>
+  <si>
+    <t>myposyandu-recipient</t>
+  </si>
+  <si>
+    <t>activity/:activity/recipient</t>
+  </si>
+  <si>
+    <t>view, show, search</t>
+  </si>
+  <si>
+    <t>view, show, update, search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +255,22 @@
       <color rgb="FF000000"/>
       <name val="Fira Code Regular"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Fira Code Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Regular"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -282,6 +319,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,10 +732,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -772,22 +822,22 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
@@ -813,7 +863,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>36</v>
@@ -836,13 +886,13 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>28</v>
@@ -851,7 +901,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>0</v>
@@ -877,16 +927,16 @@
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="H6" s="5" t="b">
         <v>0</v>
@@ -912,16 +962,16 @@
         <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>0</v>
@@ -941,22 +991,22 @@
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H8" s="5" t="b">
         <v>1</v>
@@ -964,7 +1014,40 @@
       <c r="I8" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -978,10 +1061,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1018,7 +1101,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -1040,7 +1123,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -1051,7 +1134,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1062,7 +1145,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -1073,9 +1156,20 @@
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1089,40 +1183,49 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1135,17 +1238,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1167,7 +1270,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1175,10 +1278,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1189,7 +1292,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1197,10 +1300,10 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1208,10 +1311,10 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1219,10 +1322,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1230,10 +1333,21 @@
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1246,18 +1360,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1282,7 +1396,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1293,10 +1407,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1321,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>46</v>
@@ -1335,7 +1449,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>46</v>
@@ -1349,7 +1463,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>46</v>
@@ -1363,13 +1477,111 @@
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
